--- a/kvision/ksample/mytable/docmind/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/docmind/008_fcc77.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -162,11 +162,58 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -991,6 +1038,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1370,568 +1424,568 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="273" t="inlineStr">
+      <c r="A1" s="276" t="inlineStr">
         <is>
           <t>省份</t>
         </is>
       </c>
-      <c r="B1" s="273" t="inlineStr">
+      <c r="B1" s="276" t="inlineStr">
         <is>
           <t>2021年固定量产投资增速</t>
         </is>
       </c>
-      <c r="C1" s="273" t="inlineStr">
+      <c r="C1" s="276" t="inlineStr">
         <is>
           <t>2022年固定责产投资增速目标</t>
         </is>
       </c>
-      <c r="D1" s="273" t="inlineStr">
+      <c r="D1" s="276" t="inlineStr">
         <is>
           <t>政府工作报告</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="274" t="n"/>
-      <c r="B2" s="275" t="n"/>
-      <c r="C2" s="275" t="n"/>
-      <c r="D2" s="273" t="inlineStr">
+      <c r="A2" s="277" t="n"/>
+      <c r="B2" s="278" t="n"/>
+      <c r="C2" s="278" t="n"/>
+      <c r="D2" s="276" t="inlineStr">
         <is>
           <t>1.以重大项目牵引扩大有效投资，适度超前开展基础设施投资，加大利造业、高新技</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="273" t="inlineStr">
+      <c r="A3" s="276" t="inlineStr">
         <is>
           <t>安徽</t>
         </is>
       </c>
-      <c r="B3" s="273" t="inlineStr">
+      <c r="B3" s="276" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="C3" s="273" t="inlineStr">
+      <c r="C3" s="276" t="inlineStr">
         <is>
           <t>10%以上</t>
         </is>
       </c>
-      <c r="D3" s="275" t="n"/>
+      <c r="D3" s="278" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="275" t="n"/>
-      <c r="B4" s="275" t="n"/>
-      <c r="C4" s="275" t="n"/>
-      <c r="D4" s="273" t="inlineStr">
+      <c r="A4" s="278" t="n"/>
+      <c r="B4" s="278" t="n"/>
+      <c r="C4" s="278" t="n"/>
+      <c r="D4" s="276" t="inlineStr">
         <is>
           <t>术产业投资力度，全年新开工亿元以上重点项目2600个以上、竣工1200个以上。2.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="275" t="n"/>
-      <c r="B5" s="275" t="n"/>
-      <c r="C5" s="275" t="n"/>
-      <c r="D5" s="273" t="inlineStr">
+      <c r="A5" s="278" t="n"/>
+      <c r="B5" s="278" t="n"/>
+      <c r="C5" s="278" t="n"/>
+      <c r="D5" s="276" t="inlineStr">
         <is>
           <t>加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能起板，推动产</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="275" t="n"/>
-      <c r="B6" s="275" t="n"/>
-      <c r="C6" s="275" t="n"/>
-      <c r="D6" s="273" t="inlineStr">
+      <c r="A6" s="278" t="n"/>
+      <c r="B6" s="278" t="n"/>
+      <c r="C6" s="278" t="n"/>
+      <c r="D6" s="276" t="inlineStr">
         <is>
           <t>业集群化、桑群国区化、园区社区化、社区城镇化。实施县城补短板强弱项工程，支</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="275" t="n"/>
-      <c r="B7" s="275" t="n"/>
-      <c r="C7" s="275" t="n"/>
-      <c r="D7" s="273" t="inlineStr">
+      <c r="A7" s="278" t="n"/>
+      <c r="B7" s="278" t="n"/>
+      <c r="C7" s="278" t="n"/>
+      <c r="D7" s="276" t="inlineStr">
         <is>
           <t>持有条件的县域和城镇按照中小城市标准建设，扩大人口较大县城设置街道改革试点。1.加快建设红沿河核电、徐大堡核电、沈白高铁，开工建设京哈高速绥中盘锦段改扩</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="275" t="n"/>
-      <c r="B8" s="275" t="n"/>
-      <c r="C8" s="275" t="n"/>
-      <c r="D8" s="275" t="n"/>
+      <c r="A8" s="278" t="n"/>
+      <c r="B8" s="278" t="n"/>
+      <c r="C8" s="278" t="n"/>
+      <c r="D8" s="278" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="273" t="inlineStr">
+      <c r="A9" s="276" t="inlineStr">
         <is>
           <t>辽宁</t>
         </is>
       </c>
-      <c r="B9" s="273" t="inlineStr">
+      <c r="B9" s="276" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="C9" s="273" t="inlineStr">
+      <c r="C9" s="276" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="D9" s="275" t="n"/>
+      <c r="D9" s="278" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="275" t="n"/>
-      <c r="B10" s="275" t="n"/>
-      <c r="C10" s="275" t="n"/>
-      <c r="D10" s="275" t="n"/>
+      <c r="A10" s="278" t="n"/>
+      <c r="B10" s="278" t="n"/>
+      <c r="C10" s="278" t="n"/>
+      <c r="D10" s="278" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="275" t="n"/>
-      <c r="B11" s="275" t="n"/>
-      <c r="C11" s="275" t="n"/>
-      <c r="D11" s="273" t="inlineStr">
+      <c r="A11" s="278" t="n"/>
+      <c r="B11" s="278" t="n"/>
+      <c r="C11" s="278" t="n"/>
+      <c r="D11" s="276" t="inlineStr">
         <is>
           <t>建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目，2.大力发展县</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="275" t="n"/>
-      <c r="B12" s="275" t="n"/>
-      <c r="C12" s="275" t="n"/>
-      <c r="D12" s="273" t="inlineStr">
+      <c r="A12" s="278" t="n"/>
+      <c r="B12" s="278" t="n"/>
+      <c r="C12" s="278" t="n"/>
+      <c r="D12" s="276" t="inlineStr">
         <is>
           <t>域经济，建设产业园区，做强做优“一县一业”，努力培养一批农业强县、制造强县、</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="275" t="n"/>
-      <c r="B13" s="275" t="n"/>
-      <c r="C13" s="275" t="n"/>
-      <c r="D13" s="273" t="inlineStr">
+      <c r="A13" s="278" t="n"/>
+      <c r="B13" s="278" t="n"/>
+      <c r="C13" s="278" t="n"/>
+      <c r="D13" s="276" t="inlineStr">
         <is>
           <t>商贸强县、文旅强县。1.积极扩大有效投资，新增高铁里程184公里，力争新增一级高速公路700公里，加</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="275" t="n"/>
-      <c r="B14" s="275" t="n"/>
-      <c r="C14" s="275" t="n"/>
-      <c r="D14" s="275" t="n"/>
+      <c r="A14" s="278" t="n"/>
+      <c r="B14" s="278" t="n"/>
+      <c r="C14" s="278" t="n"/>
+      <c r="D14" s="278" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="273" t="inlineStr">
+      <c r="A15" s="276" t="inlineStr">
         <is>
           <t>寸肃</t>
         </is>
       </c>
-      <c r="B15" s="273" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>11.10%</t>
         </is>
       </c>
-      <c r="C15" s="273" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="D15" s="275" t="n"/>
+      <c r="D15" s="278" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="275" t="n"/>
-      <c r="B16" s="275" t="n"/>
-      <c r="C16" s="275" t="n"/>
-      <c r="D16" s="275" t="n"/>
+      <c r="A16" s="278" t="n"/>
+      <c r="B16" s="278" t="n"/>
+      <c r="C16" s="278" t="n"/>
+      <c r="D16" s="278" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="275" t="n"/>
-      <c r="B17" s="275" t="n"/>
-      <c r="C17" s="275" t="n"/>
-      <c r="D17" s="273" t="inlineStr">
+      <c r="A17" s="278" t="n"/>
+      <c r="B17" s="278" t="n"/>
+      <c r="C17" s="278" t="n"/>
+      <c r="D17" s="276" t="inlineStr">
         <is>
           <t>快机场建设工作，优化水网体系布局。2.推动以人为核心的新型城镇化，落实共建兰</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="275" t="n"/>
-      <c r="B18" s="275" t="n"/>
-      <c r="C18" s="275" t="n"/>
-      <c r="D18" s="273" t="inlineStr">
+      <c r="A18" s="278" t="n"/>
+      <c r="B18" s="278" t="n"/>
+      <c r="C18" s="278" t="n"/>
+      <c r="D18" s="276" t="inlineStr">
         <is>
           <t>西城市群“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、敦煌</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="275" t="n"/>
-      <c r="B19" s="275" t="n"/>
-      <c r="C19" s="275" t="n"/>
-      <c r="D19" s="273" t="inlineStr">
+      <c r="A19" s="278" t="n"/>
+      <c r="B19" s="278" t="n"/>
+      <c r="C19" s="278" t="n"/>
+      <c r="D19" s="276" t="inlineStr">
         <is>
           <t>国家级新型城镇化示范县城建设，抓好马鬃山“兴边富民行动中心城镇”试点。1.全方位推进“十四大交通工程”“六大水利工程"建设，力争基础设施投资增长10%；</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="275" t="n"/>
-      <c r="B20" s="275" t="n"/>
-      <c r="C20" s="275" t="n"/>
-      <c r="D20" s="275" t="n"/>
+      <c r="A20" s="278" t="n"/>
+      <c r="B20" s="278" t="n"/>
+      <c r="C20" s="278" t="n"/>
+      <c r="D20" s="278" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="273" t="inlineStr">
+      <c r="A21" s="276" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="B21" s="273" t="inlineStr">
+      <c r="B21" s="276" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="C21" s="273" t="inlineStr">
+      <c r="C21" s="276" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="D21" s="275" t="n"/>
+      <c r="D21" s="278" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="275" t="n"/>
-      <c r="B22" s="275" t="n"/>
-      <c r="C22" s="275" t="n"/>
-      <c r="D22" s="275" t="n"/>
+      <c r="A22" s="278" t="n"/>
+      <c r="B22" s="278" t="n"/>
+      <c r="C22" s="278" t="n"/>
+      <c r="D22" s="278" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="275" t="n"/>
-      <c r="B23" s="275" t="n"/>
-      <c r="C23" s="275" t="n"/>
-      <c r="D23" s="273" t="inlineStr">
+      <c r="A23" s="278" t="n"/>
+      <c r="B23" s="278" t="n"/>
+      <c r="C23" s="278" t="n"/>
+      <c r="D23" s="276" t="inlineStr">
         <is>
           <t>实现 5G 网络和千兆光网覆盖全部乡镇。2.推进以人为核心的新型城镇化，大力发展</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="275" t="n"/>
-      <c r="B24" s="275" t="n"/>
-      <c r="C24" s="275" t="n"/>
-      <c r="D24" s="273" t="inlineStr">
+      <c r="A24" s="278" t="n"/>
+      <c r="B24" s="278" t="n"/>
+      <c r="C24" s="278" t="n"/>
+      <c r="D24" s="276" t="inlineStr">
         <is>
           <t>县城经济。</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="275" t="n"/>
-      <c r="B25" s="275" t="n"/>
-      <c r="C25" s="275" t="n"/>
-      <c r="D25" s="273" t="inlineStr">
+      <c r="A25" s="278" t="n"/>
+      <c r="B25" s="278" t="n"/>
+      <c r="C25" s="278" t="n"/>
+      <c r="D25" s="276" t="inlineStr">
         <is>
           <t>1.积极扩大有效投责，抓好项目储备，加强政策对接。适度超前开展基础设施投责，</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="273" t="inlineStr">
+      <c r="A26" s="276" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="B26" s="273" t="inlineStr">
+      <c r="B26" s="276" t="inlineStr">
         <is>
           <t>6.10%</t>
         </is>
       </c>
-      <c r="C26" s="273" t="inlineStr">
+      <c r="C26" s="276" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="D26" s="273" t="inlineStr">
+      <c r="D26" s="276" t="inlineStr">
         <is>
           <t>抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="275" t="n"/>
-      <c r="B27" s="275" t="n"/>
-      <c r="C27" s="275" t="n"/>
-      <c r="D27" s="273" t="inlineStr">
+      <c r="A27" s="278" t="n"/>
+      <c r="B27" s="278" t="n"/>
+      <c r="C27" s="278" t="n"/>
+      <c r="D27" s="276" t="inlineStr">
         <is>
           <t>牵引性强、可持续发展的项目。2.持续推进城市提升，提高城市功能品质，深入雅进</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="275" t="n"/>
-      <c r="B28" s="275" t="n"/>
-      <c r="C28" s="275" t="n"/>
-      <c r="D28" s="273" t="inlineStr">
+      <c r="A28" s="278" t="n"/>
+      <c r="B28" s="278" t="n"/>
+      <c r="C28" s="278" t="n"/>
+      <c r="D28" s="276" t="inlineStr">
         <is>
           <t>以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、绿色化、</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="275" t="n"/>
-      <c r="B29" s="275" t="n"/>
-      <c r="C29" s="275" t="n"/>
-      <c r="D29" s="273" t="inlineStr">
+      <c r="A29" s="278" t="n"/>
+      <c r="B29" s="278" t="n"/>
+      <c r="C29" s="278" t="n"/>
+      <c r="D29" s="276" t="inlineStr">
         <is>
           <t>智能化、人文化现代大都市。</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="273" t="inlineStr">
+      <c r="A30" s="276" t="inlineStr">
         <is>
           <t>江西</t>
         </is>
       </c>
-      <c r="B30" s="273" t="inlineStr">
+      <c r="B30" s="276" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="C30" s="273" t="inlineStr">
+      <c r="C30" s="276" t="inlineStr">
         <is>
           <t>8%以上</t>
         </is>
       </c>
-      <c r="D30" s="275" t="n"/>
+      <c r="D30" s="278" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="275" t="n"/>
-      <c r="B31" s="275" t="n"/>
-      <c r="C31" s="275" t="n"/>
-      <c r="D31" s="273" t="inlineStr">
+      <c r="A31" s="278" t="n"/>
+      <c r="B31" s="278" t="n"/>
+      <c r="C31" s="278" t="n"/>
+      <c r="D31" s="276" t="inlineStr">
         <is>
           <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2.实施城市功能与品质</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="275" t="n"/>
-      <c r="B32" s="275" t="n"/>
-      <c r="C32" s="275" t="n"/>
-      <c r="D32" s="273" t="inlineStr">
+      <c r="A32" s="278" t="n"/>
+      <c r="B32" s="278" t="n"/>
+      <c r="C32" s="278" t="n"/>
+      <c r="D32" s="276" t="inlineStr">
         <is>
           <t>提升行动，完成县级城市建成区黑奥水体排查并启动整治，32%建成区达到海绵城市</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="275" t="n"/>
-      <c r="B33" s="275" t="n"/>
-      <c r="C33" s="275" t="n"/>
-      <c r="D33" s="273" t="inlineStr">
+      <c r="A33" s="278" t="n"/>
+      <c r="B33" s="278" t="n"/>
+      <c r="C33" s="278" t="n"/>
+      <c r="D33" s="276" t="inlineStr">
         <is>
           <t>建设要求，力争30%城市(县城)达到省生态园林城市标准.</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="275" t="n"/>
-      <c r="B34" s="275" t="n"/>
-      <c r="C34" s="275" t="n"/>
-      <c r="D34" s="273" t="inlineStr">
+      <c r="A34" s="278" t="n"/>
+      <c r="B34" s="278" t="n"/>
+      <c r="C34" s="278" t="n"/>
+      <c r="D34" s="276" t="inlineStr">
         <is>
           <t>1.自治区层面统筹推进重大项目2000项以上；开工一批高速公路项目、置程2000公</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="273" t="inlineStr">
+      <c r="A35" s="276" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
-      <c r="B35" s="273" t="inlineStr">
+      <c r="B35" s="276" t="inlineStr">
         <is>
           <t>7.60%</t>
         </is>
       </c>
-      <c r="C35" s="273" t="inlineStr">
+      <c r="C35" s="276" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="D35" s="275" t="n"/>
+      <c r="D35" s="278" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="275" t="n"/>
-      <c r="B36" s="275" t="n"/>
-      <c r="C36" s="275" t="n"/>
-      <c r="D36" s="273" t="inlineStr">
+      <c r="A36" s="278" t="n"/>
+      <c r="B36" s="278" t="n"/>
+      <c r="C36" s="278" t="n"/>
+      <c r="D36" s="276" t="inlineStr">
         <is>
           <t>里以上，全面实现县县通高速，力争引进10家以上“三类500强”企业，完成投资</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="275" t="n"/>
-      <c r="B37" s="275" t="n"/>
-      <c r="C37" s="275" t="n"/>
-      <c r="D37" s="273" t="inlineStr">
+      <c r="A37" s="278" t="n"/>
+      <c r="B37" s="278" t="n"/>
+      <c r="C37" s="278" t="n"/>
+      <c r="D37" s="276" t="inlineStr">
         <is>
           <t>8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2.加快建设程</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="275" t="n"/>
-      <c r="B38" s="275" t="n"/>
-      <c r="C38" s="275" t="n"/>
-      <c r="D38" s="273" t="inlineStr">
+      <c r="A38" s="278" t="n"/>
+      <c r="B38" s="278" t="n"/>
+      <c r="C38" s="278" t="n"/>
+      <c r="D38" s="276" t="inlineStr">
         <is>
           <t>林世界级旅游域市和广西世界级旅游城市目的地，开展“百镇千村”生态特色文化旅</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="274" t="n"/>
-      <c r="B39" s="274" t="n"/>
-      <c r="C39" s="274" t="n"/>
-      <c r="D39" s="273" t="inlineStr">
+      <c r="A39" s="277" t="n"/>
+      <c r="B39" s="277" t="n"/>
+      <c r="C39" s="277" t="n"/>
+      <c r="D39" s="276" t="inlineStr">
         <is>
           <t>游创建.</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="273" t="inlineStr">
+      <c r="A40" s="276" t="inlineStr">
         <is>
           <t>广东</t>
         </is>
       </c>
-      <c r="B40" s="273" t="inlineStr">
+      <c r="B40" s="276" t="inlineStr">
         <is>
           <t>6.30%</t>
         </is>
       </c>
-      <c r="C40" s="273" t="inlineStr">
+      <c r="C40" s="276" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="D40" s="273" t="inlineStr">
+      <c r="D40" s="276" t="inlineStr">
         <is>
           <t>1.适度超前开展基础设施投资，加快交通强省建设。推进广港等高铁建设，做好漳汕</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="275" t="n"/>
-      <c r="B41" s="275" t="n"/>
-      <c r="C41" s="275" t="n"/>
-      <c r="D41" s="273" t="inlineStr">
+      <c r="A41" s="278" t="n"/>
+      <c r="B41" s="278" t="n"/>
+      <c r="C41" s="278" t="n"/>
+      <c r="D41" s="276" t="inlineStr">
         <is>
           <t>高铁新通道等项目前期工作；抓好深中等跨江跨海通道和沈海等高速公路改扩建项目，</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="275" t="n"/>
-      <c r="B42" s="275" t="n"/>
-      <c r="C42" s="275" t="n"/>
-      <c r="D42" s="273" t="inlineStr">
+      <c r="A42" s="278" t="n"/>
+      <c r="B42" s="278" t="n"/>
+      <c r="C42" s="278" t="n"/>
+      <c r="D42" s="276" t="inlineStr">
         <is>
           <t>推进普通国省道和普通公路危旧桥、淀改桥升级改造，加快世界级机场群港口群建设，</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="275" t="n"/>
-      <c r="B43" s="275" t="n"/>
-      <c r="C43" s="275" t="n"/>
-      <c r="D43" s="273" t="inlineStr">
+      <c r="A43" s="278" t="n"/>
+      <c r="B43" s="278" t="n"/>
+      <c r="C43" s="278" t="n"/>
+      <c r="D43" s="276" t="inlineStr">
         <is>
           <t>加快新型消费基础设施和载体建设。2.积板作为深入推进寻港澳大湾区建设，全力建</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="275" t="n"/>
-      <c r="B44" s="275" t="n"/>
-      <c r="C44" s="275" t="n"/>
-      <c r="D44" s="273" t="inlineStr">
+      <c r="A44" s="278" t="n"/>
+      <c r="B44" s="278" t="n"/>
+      <c r="C44" s="278" t="n"/>
+      <c r="D44" s="276" t="inlineStr">
         <is>
           <t>设好深圳先行示范区，推动广州加快实现走城市新活力和“四个出新出彩”，高水平推</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="275" t="n"/>
-      <c r="B45" s="275" t="n"/>
-      <c r="C45" s="275" t="n"/>
-      <c r="D45" s="273" t="inlineStr">
+      <c r="A45" s="278" t="n"/>
+      <c r="B45" s="278" t="n"/>
+      <c r="C45" s="278" t="n"/>
+      <c r="D45" s="276" t="inlineStr">
         <is>
           <t>进横琴粤澳深度合作区建设，全面深化前海深港现代服务业合作区改革开放.</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="273" t="inlineStr">
+      <c r="A46" s="276" t="inlineStr">
         <is>
           <t>新疆</t>
         </is>
       </c>
-      <c r="B46" s="273" t="inlineStr">
+      <c r="B46" s="276" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="C46" s="273" t="inlineStr">
+      <c r="C46" s="276" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="D46" s="275" t="n"/>
+      <c r="D46" s="278" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="275" t="n"/>
-      <c r="B47" s="275" t="n"/>
-      <c r="C47" s="275" t="n"/>
-      <c r="D47" s="273" t="inlineStr">
+      <c r="A47" s="278" t="n"/>
+      <c r="B47" s="278" t="n"/>
+      <c r="C47" s="278" t="n"/>
+      <c r="D47" s="276" t="inlineStr">
         <is>
           <t>1.加快旅游基础设施建设，适度超前开展基础设施投资，加快推进综合立体交通建设，</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="275" t="n"/>
-      <c r="B48" s="275" t="n"/>
-      <c r="C48" s="275" t="n"/>
-      <c r="D48" s="273" t="inlineStr">
+      <c r="A48" s="278" t="n"/>
+      <c r="B48" s="278" t="n"/>
+      <c r="C48" s="278" t="n"/>
+      <c r="D48" s="276" t="inlineStr">
         <is>
           <t>加快推进水利建设，加快推进能源建设，加快推进通信建设：有序推进城市更新，加</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="275" t="n"/>
-      <c r="B49" s="275" t="n"/>
-      <c r="C49" s="275" t="n"/>
-      <c r="D49" s="273" t="inlineStr">
+      <c r="A49" s="278" t="n"/>
+      <c r="B49" s="278" t="n"/>
+      <c r="C49" s="278" t="n"/>
+      <c r="D49" s="276" t="inlineStr">
         <is>
           <t>强城市公共交通、市政设施、地下管网建设。2.加快新型城镇化建设，培育一批城市</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="275" t="n"/>
-      <c r="B50" s="275" t="n"/>
-      <c r="C50" s="275" t="n"/>
-      <c r="D50" s="273" t="inlineStr">
+      <c r="A50" s="278" t="n"/>
+      <c r="B50" s="278" t="n"/>
+      <c r="C50" s="278" t="n"/>
+      <c r="D50" s="276" t="inlineStr">
         <is>
           <t>好和区域中心城市，促进城乡融合发展。</t>
         </is>

--- a/kvision/ksample/mytable/docmind/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/docmind/008_fcc77.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -209,11 +209,58 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1045,6 +1092,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1424,568 +1478,568 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="276" t="inlineStr">
+      <c r="A1" s="279" t="inlineStr">
         <is>
           <t>省份</t>
         </is>
       </c>
-      <c r="B1" s="276" t="inlineStr">
+      <c r="B1" s="279" t="inlineStr">
         <is>
           <t>2021年固定量产投资增速</t>
         </is>
       </c>
-      <c r="C1" s="276" t="inlineStr">
+      <c r="C1" s="279" t="inlineStr">
         <is>
           <t>2022年固定责产投资增速目标</t>
         </is>
       </c>
-      <c r="D1" s="276" t="inlineStr">
+      <c r="D1" s="279" t="inlineStr">
         <is>
           <t>政府工作报告</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="277" t="n"/>
-      <c r="B2" s="278" t="n"/>
-      <c r="C2" s="278" t="n"/>
-      <c r="D2" s="276" t="inlineStr">
+      <c r="A2" s="280" t="n"/>
+      <c r="B2" s="281" t="n"/>
+      <c r="C2" s="281" t="n"/>
+      <c r="D2" s="279" t="inlineStr">
         <is>
           <t>1.以重大项目牵引扩大有效投资，适度超前开展基础设施投资，加大利造业、高新技</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="276" t="inlineStr">
+      <c r="A3" s="279" t="inlineStr">
         <is>
           <t>安徽</t>
         </is>
       </c>
-      <c r="B3" s="276" t="inlineStr">
+      <c r="B3" s="279" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="C3" s="276" t="inlineStr">
+      <c r="C3" s="279" t="inlineStr">
         <is>
           <t>10%以上</t>
         </is>
       </c>
-      <c r="D3" s="278" t="n"/>
+      <c r="D3" s="281" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="278" t="n"/>
-      <c r="B4" s="278" t="n"/>
-      <c r="C4" s="278" t="n"/>
-      <c r="D4" s="276" t="inlineStr">
+      <c r="A4" s="281" t="n"/>
+      <c r="B4" s="281" t="n"/>
+      <c r="C4" s="281" t="n"/>
+      <c r="D4" s="279" t="inlineStr">
         <is>
           <t>术产业投资力度，全年新开工亿元以上重点项目2600个以上、竣工1200个以上。2.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="278" t="n"/>
-      <c r="B5" s="278" t="n"/>
-      <c r="C5" s="278" t="n"/>
-      <c r="D5" s="276" t="inlineStr">
+      <c r="A5" s="281" t="n"/>
+      <c r="B5" s="281" t="n"/>
+      <c r="C5" s="281" t="n"/>
+      <c r="D5" s="279" t="inlineStr">
         <is>
           <t>加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能起板，推动产</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="278" t="n"/>
-      <c r="B6" s="278" t="n"/>
-      <c r="C6" s="278" t="n"/>
-      <c r="D6" s="276" t="inlineStr">
+      <c r="A6" s="281" t="n"/>
+      <c r="B6" s="281" t="n"/>
+      <c r="C6" s="281" t="n"/>
+      <c r="D6" s="279" t="inlineStr">
         <is>
           <t>业集群化、桑群国区化、园区社区化、社区城镇化。实施县城补短板强弱项工程，支</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="278" t="n"/>
-      <c r="B7" s="278" t="n"/>
-      <c r="C7" s="278" t="n"/>
-      <c r="D7" s="276" t="inlineStr">
+      <c r="A7" s="281" t="n"/>
+      <c r="B7" s="281" t="n"/>
+      <c r="C7" s="281" t="n"/>
+      <c r="D7" s="279" t="inlineStr">
         <is>
           <t>持有条件的县域和城镇按照中小城市标准建设，扩大人口较大县城设置街道改革试点。1.加快建设红沿河核电、徐大堡核电、沈白高铁，开工建设京哈高速绥中盘锦段改扩</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="278" t="n"/>
-      <c r="B8" s="278" t="n"/>
-      <c r="C8" s="278" t="n"/>
-      <c r="D8" s="278" t="n"/>
+      <c r="A8" s="281" t="n"/>
+      <c r="B8" s="281" t="n"/>
+      <c r="C8" s="281" t="n"/>
+      <c r="D8" s="281" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="279" t="inlineStr">
         <is>
           <t>辽宁</t>
         </is>
       </c>
-      <c r="B9" s="276" t="inlineStr">
+      <c r="B9" s="279" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="C9" s="276" t="inlineStr">
+      <c r="C9" s="279" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="D9" s="278" t="n"/>
+      <c r="D9" s="281" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="278" t="n"/>
-      <c r="B10" s="278" t="n"/>
-      <c r="C10" s="278" t="n"/>
-      <c r="D10" s="278" t="n"/>
+      <c r="A10" s="281" t="n"/>
+      <c r="B10" s="281" t="n"/>
+      <c r="C10" s="281" t="n"/>
+      <c r="D10" s="281" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="278" t="n"/>
-      <c r="B11" s="278" t="n"/>
-      <c r="C11" s="278" t="n"/>
-      <c r="D11" s="276" t="inlineStr">
+      <c r="A11" s="281" t="n"/>
+      <c r="B11" s="281" t="n"/>
+      <c r="C11" s="281" t="n"/>
+      <c r="D11" s="279" t="inlineStr">
         <is>
           <t>建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目，2.大力发展县</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="278" t="n"/>
-      <c r="B12" s="278" t="n"/>
-      <c r="C12" s="278" t="n"/>
-      <c r="D12" s="276" t="inlineStr">
+      <c r="A12" s="281" t="n"/>
+      <c r="B12" s="281" t="n"/>
+      <c r="C12" s="281" t="n"/>
+      <c r="D12" s="279" t="inlineStr">
         <is>
           <t>域经济，建设产业园区，做强做优“一县一业”，努力培养一批农业强县、制造强县、</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="278" t="n"/>
-      <c r="B13" s="278" t="n"/>
-      <c r="C13" s="278" t="n"/>
-      <c r="D13" s="276" t="inlineStr">
+      <c r="A13" s="281" t="n"/>
+      <c r="B13" s="281" t="n"/>
+      <c r="C13" s="281" t="n"/>
+      <c r="D13" s="279" t="inlineStr">
         <is>
           <t>商贸强县、文旅强县。1.积极扩大有效投资，新增高铁里程184公里，力争新增一级高速公路700公里，加</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="278" t="n"/>
-      <c r="B14" s="278" t="n"/>
-      <c r="C14" s="278" t="n"/>
-      <c r="D14" s="278" t="n"/>
+      <c r="A14" s="281" t="n"/>
+      <c r="B14" s="281" t="n"/>
+      <c r="C14" s="281" t="n"/>
+      <c r="D14" s="281" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="276" t="inlineStr">
+      <c r="A15" s="279" t="inlineStr">
         <is>
           <t>寸肃</t>
         </is>
       </c>
-      <c r="B15" s="276" t="inlineStr">
+      <c r="B15" s="279" t="inlineStr">
         <is>
           <t>11.10%</t>
         </is>
       </c>
-      <c r="C15" s="276" t="inlineStr">
+      <c r="C15" s="279" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="D15" s="278" t="n"/>
+      <c r="D15" s="281" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="278" t="n"/>
-      <c r="B16" s="278" t="n"/>
-      <c r="C16" s="278" t="n"/>
-      <c r="D16" s="278" t="n"/>
+      <c r="A16" s="281" t="n"/>
+      <c r="B16" s="281" t="n"/>
+      <c r="C16" s="281" t="n"/>
+      <c r="D16" s="281" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="278" t="n"/>
-      <c r="B17" s="278" t="n"/>
-      <c r="C17" s="278" t="n"/>
-      <c r="D17" s="276" t="inlineStr">
+      <c r="A17" s="281" t="n"/>
+      <c r="B17" s="281" t="n"/>
+      <c r="C17" s="281" t="n"/>
+      <c r="D17" s="279" t="inlineStr">
         <is>
           <t>快机场建设工作，优化水网体系布局。2.推动以人为核心的新型城镇化，落实共建兰</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="278" t="n"/>
-      <c r="B18" s="278" t="n"/>
-      <c r="C18" s="278" t="n"/>
-      <c r="D18" s="276" t="inlineStr">
+      <c r="A18" s="281" t="n"/>
+      <c r="B18" s="281" t="n"/>
+      <c r="C18" s="281" t="n"/>
+      <c r="D18" s="279" t="inlineStr">
         <is>
           <t>西城市群“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、敦煌</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="278" t="n"/>
-      <c r="B19" s="278" t="n"/>
-      <c r="C19" s="278" t="n"/>
-      <c r="D19" s="276" t="inlineStr">
+      <c r="A19" s="281" t="n"/>
+      <c r="B19" s="281" t="n"/>
+      <c r="C19" s="281" t="n"/>
+      <c r="D19" s="279" t="inlineStr">
         <is>
           <t>国家级新型城镇化示范县城建设，抓好马鬃山“兴边富民行动中心城镇”试点。1.全方位推进“十四大交通工程”“六大水利工程"建设，力争基础设施投资增长10%；</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="278" t="n"/>
-      <c r="B20" s="278" t="n"/>
-      <c r="C20" s="278" t="n"/>
-      <c r="D20" s="278" t="n"/>
+      <c r="A20" s="281" t="n"/>
+      <c r="B20" s="281" t="n"/>
+      <c r="C20" s="281" t="n"/>
+      <c r="D20" s="281" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="276" t="inlineStr">
+      <c r="A21" s="279" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="B21" s="276" t="inlineStr">
+      <c r="B21" s="279" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="C21" s="276" t="inlineStr">
+      <c r="C21" s="279" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="D21" s="278" t="n"/>
+      <c r="D21" s="281" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="278" t="n"/>
-      <c r="B22" s="278" t="n"/>
-      <c r="C22" s="278" t="n"/>
-      <c r="D22" s="278" t="n"/>
+      <c r="A22" s="281" t="n"/>
+      <c r="B22" s="281" t="n"/>
+      <c r="C22" s="281" t="n"/>
+      <c r="D22" s="281" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="278" t="n"/>
-      <c r="B23" s="278" t="n"/>
-      <c r="C23" s="278" t="n"/>
-      <c r="D23" s="276" t="inlineStr">
+      <c r="A23" s="281" t="n"/>
+      <c r="B23" s="281" t="n"/>
+      <c r="C23" s="281" t="n"/>
+      <c r="D23" s="279" t="inlineStr">
         <is>
           <t>实现 5G 网络和千兆光网覆盖全部乡镇。2.推进以人为核心的新型城镇化，大力发展</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="278" t="n"/>
-      <c r="B24" s="278" t="n"/>
-      <c r="C24" s="278" t="n"/>
-      <c r="D24" s="276" t="inlineStr">
+      <c r="A24" s="281" t="n"/>
+      <c r="B24" s="281" t="n"/>
+      <c r="C24" s="281" t="n"/>
+      <c r="D24" s="279" t="inlineStr">
         <is>
           <t>县城经济。</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="278" t="n"/>
-      <c r="B25" s="278" t="n"/>
-      <c r="C25" s="278" t="n"/>
-      <c r="D25" s="276" t="inlineStr">
+      <c r="A25" s="281" t="n"/>
+      <c r="B25" s="281" t="n"/>
+      <c r="C25" s="281" t="n"/>
+      <c r="D25" s="279" t="inlineStr">
         <is>
           <t>1.积极扩大有效投责，抓好项目储备，加强政策对接。适度超前开展基础设施投责，</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="276" t="inlineStr">
+      <c r="A26" s="279" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="B26" s="276" t="inlineStr">
+      <c r="B26" s="279" t="inlineStr">
         <is>
           <t>6.10%</t>
         </is>
       </c>
-      <c r="C26" s="276" t="inlineStr">
+      <c r="C26" s="279" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="D26" s="276" t="inlineStr">
+      <c r="D26" s="279" t="inlineStr">
         <is>
           <t>抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="278" t="n"/>
-      <c r="B27" s="278" t="n"/>
-      <c r="C27" s="278" t="n"/>
-      <c r="D27" s="276" t="inlineStr">
+      <c r="A27" s="281" t="n"/>
+      <c r="B27" s="281" t="n"/>
+      <c r="C27" s="281" t="n"/>
+      <c r="D27" s="279" t="inlineStr">
         <is>
           <t>牵引性强、可持续发展的项目。2.持续推进城市提升，提高城市功能品质，深入雅进</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="278" t="n"/>
-      <c r="B28" s="278" t="n"/>
-      <c r="C28" s="278" t="n"/>
-      <c r="D28" s="276" t="inlineStr">
+      <c r="A28" s="281" t="n"/>
+      <c r="B28" s="281" t="n"/>
+      <c r="C28" s="281" t="n"/>
+      <c r="D28" s="279" t="inlineStr">
         <is>
           <t>以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、绿色化、</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="278" t="n"/>
-      <c r="B29" s="278" t="n"/>
-      <c r="C29" s="278" t="n"/>
-      <c r="D29" s="276" t="inlineStr">
+      <c r="A29" s="281" t="n"/>
+      <c r="B29" s="281" t="n"/>
+      <c r="C29" s="281" t="n"/>
+      <c r="D29" s="279" t="inlineStr">
         <is>
           <t>智能化、人文化现代大都市。</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="276" t="inlineStr">
+      <c r="A30" s="279" t="inlineStr">
         <is>
           <t>江西</t>
         </is>
       </c>
-      <c r="B30" s="276" t="inlineStr">
+      <c r="B30" s="279" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="C30" s="276" t="inlineStr">
+      <c r="C30" s="279" t="inlineStr">
         <is>
           <t>8%以上</t>
         </is>
       </c>
-      <c r="D30" s="278" t="n"/>
+      <c r="D30" s="281" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="278" t="n"/>
-      <c r="B31" s="278" t="n"/>
-      <c r="C31" s="278" t="n"/>
-      <c r="D31" s="276" t="inlineStr">
+      <c r="A31" s="281" t="n"/>
+      <c r="B31" s="281" t="n"/>
+      <c r="C31" s="281" t="n"/>
+      <c r="D31" s="279" t="inlineStr">
         <is>
           <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2.实施城市功能与品质</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="278" t="n"/>
-      <c r="B32" s="278" t="n"/>
-      <c r="C32" s="278" t="n"/>
-      <c r="D32" s="276" t="inlineStr">
+      <c r="A32" s="281" t="n"/>
+      <c r="B32" s="281" t="n"/>
+      <c r="C32" s="281" t="n"/>
+      <c r="D32" s="279" t="inlineStr">
         <is>
           <t>提升行动，完成县级城市建成区黑奥水体排查并启动整治，32%建成区达到海绵城市</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="278" t="n"/>
-      <c r="B33" s="278" t="n"/>
-      <c r="C33" s="278" t="n"/>
-      <c r="D33" s="276" t="inlineStr">
+      <c r="A33" s="281" t="n"/>
+      <c r="B33" s="281" t="n"/>
+      <c r="C33" s="281" t="n"/>
+      <c r="D33" s="279" t="inlineStr">
         <is>
           <t>建设要求，力争30%城市(县城)达到省生态园林城市标准.</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="278" t="n"/>
-      <c r="B34" s="278" t="n"/>
-      <c r="C34" s="278" t="n"/>
-      <c r="D34" s="276" t="inlineStr">
+      <c r="A34" s="281" t="n"/>
+      <c r="B34" s="281" t="n"/>
+      <c r="C34" s="281" t="n"/>
+      <c r="D34" s="279" t="inlineStr">
         <is>
           <t>1.自治区层面统筹推进重大项目2000项以上；开工一批高速公路项目、置程2000公</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="276" t="inlineStr">
+      <c r="A35" s="279" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
-      <c r="B35" s="276" t="inlineStr">
+      <c r="B35" s="279" t="inlineStr">
         <is>
           <t>7.60%</t>
         </is>
       </c>
-      <c r="C35" s="276" t="inlineStr">
+      <c r="C35" s="279" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="D35" s="278" t="n"/>
+      <c r="D35" s="281" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="278" t="n"/>
-      <c r="B36" s="278" t="n"/>
-      <c r="C36" s="278" t="n"/>
-      <c r="D36" s="276" t="inlineStr">
+      <c r="A36" s="281" t="n"/>
+      <c r="B36" s="281" t="n"/>
+      <c r="C36" s="281" t="n"/>
+      <c r="D36" s="279" t="inlineStr">
         <is>
           <t>里以上，全面实现县县通高速，力争引进10家以上“三类500强”企业，完成投资</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="278" t="n"/>
-      <c r="B37" s="278" t="n"/>
-      <c r="C37" s="278" t="n"/>
-      <c r="D37" s="276" t="inlineStr">
+      <c r="A37" s="281" t="n"/>
+      <c r="B37" s="281" t="n"/>
+      <c r="C37" s="281" t="n"/>
+      <c r="D37" s="279" t="inlineStr">
         <is>
           <t>8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2.加快建设程</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="278" t="n"/>
-      <c r="B38" s="278" t="n"/>
-      <c r="C38" s="278" t="n"/>
-      <c r="D38" s="276" t="inlineStr">
+      <c r="A38" s="281" t="n"/>
+      <c r="B38" s="281" t="n"/>
+      <c r="C38" s="281" t="n"/>
+      <c r="D38" s="279" t="inlineStr">
         <is>
           <t>林世界级旅游域市和广西世界级旅游城市目的地，开展“百镇千村”生态特色文化旅</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="277" t="n"/>
-      <c r="B39" s="277" t="n"/>
-      <c r="C39" s="277" t="n"/>
-      <c r="D39" s="276" t="inlineStr">
+      <c r="A39" s="280" t="n"/>
+      <c r="B39" s="280" t="n"/>
+      <c r="C39" s="280" t="n"/>
+      <c r="D39" s="279" t="inlineStr">
         <is>
           <t>游创建.</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="276" t="inlineStr">
+      <c r="A40" s="279" t="inlineStr">
         <is>
           <t>广东</t>
         </is>
       </c>
-      <c r="B40" s="276" t="inlineStr">
+      <c r="B40" s="279" t="inlineStr">
         <is>
           <t>6.30%</t>
         </is>
       </c>
-      <c r="C40" s="276" t="inlineStr">
+      <c r="C40" s="279" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="D40" s="276" t="inlineStr">
+      <c r="D40" s="279" t="inlineStr">
         <is>
           <t>1.适度超前开展基础设施投资，加快交通强省建设。推进广港等高铁建设，做好漳汕</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="278" t="n"/>
-      <c r="B41" s="278" t="n"/>
-      <c r="C41" s="278" t="n"/>
-      <c r="D41" s="276" t="inlineStr">
+      <c r="A41" s="281" t="n"/>
+      <c r="B41" s="281" t="n"/>
+      <c r="C41" s="281" t="n"/>
+      <c r="D41" s="279" t="inlineStr">
         <is>
           <t>高铁新通道等项目前期工作；抓好深中等跨江跨海通道和沈海等高速公路改扩建项目，</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="278" t="n"/>
-      <c r="B42" s="278" t="n"/>
-      <c r="C42" s="278" t="n"/>
-      <c r="D42" s="276" t="inlineStr">
+      <c r="A42" s="281" t="n"/>
+      <c r="B42" s="281" t="n"/>
+      <c r="C42" s="281" t="n"/>
+      <c r="D42" s="279" t="inlineStr">
         <is>
           <t>推进普通国省道和普通公路危旧桥、淀改桥升级改造，加快世界级机场群港口群建设，</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="278" t="n"/>
-      <c r="B43" s="278" t="n"/>
-      <c r="C43" s="278" t="n"/>
-      <c r="D43" s="276" t="inlineStr">
+      <c r="A43" s="281" t="n"/>
+      <c r="B43" s="281" t="n"/>
+      <c r="C43" s="281" t="n"/>
+      <c r="D43" s="279" t="inlineStr">
         <is>
           <t>加快新型消费基础设施和载体建设。2.积板作为深入推进寻港澳大湾区建设，全力建</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="278" t="n"/>
-      <c r="B44" s="278" t="n"/>
-      <c r="C44" s="278" t="n"/>
-      <c r="D44" s="276" t="inlineStr">
+      <c r="A44" s="281" t="n"/>
+      <c r="B44" s="281" t="n"/>
+      <c r="C44" s="281" t="n"/>
+      <c r="D44" s="279" t="inlineStr">
         <is>
           <t>设好深圳先行示范区，推动广州加快实现走城市新活力和“四个出新出彩”，高水平推</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="278" t="n"/>
-      <c r="B45" s="278" t="n"/>
-      <c r="C45" s="278" t="n"/>
-      <c r="D45" s="276" t="inlineStr">
+      <c r="A45" s="281" t="n"/>
+      <c r="B45" s="281" t="n"/>
+      <c r="C45" s="281" t="n"/>
+      <c r="D45" s="279" t="inlineStr">
         <is>
           <t>进横琴粤澳深度合作区建设，全面深化前海深港现代服务业合作区改革开放.</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="276" t="inlineStr">
+      <c r="A46" s="279" t="inlineStr">
         <is>
           <t>新疆</t>
         </is>
       </c>
-      <c r="B46" s="276" t="inlineStr">
+      <c r="B46" s="279" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="C46" s="276" t="inlineStr">
+      <c r="C46" s="279" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="D46" s="278" t="n"/>
+      <c r="D46" s="281" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="278" t="n"/>
-      <c r="B47" s="278" t="n"/>
-      <c r="C47" s="278" t="n"/>
-      <c r="D47" s="276" t="inlineStr">
+      <c r="A47" s="281" t="n"/>
+      <c r="B47" s="281" t="n"/>
+      <c r="C47" s="281" t="n"/>
+      <c r="D47" s="279" t="inlineStr">
         <is>
           <t>1.加快旅游基础设施建设，适度超前开展基础设施投资，加快推进综合立体交通建设，</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="278" t="n"/>
-      <c r="B48" s="278" t="n"/>
-      <c r="C48" s="278" t="n"/>
-      <c r="D48" s="276" t="inlineStr">
+      <c r="A48" s="281" t="n"/>
+      <c r="B48" s="281" t="n"/>
+      <c r="C48" s="281" t="n"/>
+      <c r="D48" s="279" t="inlineStr">
         <is>
           <t>加快推进水利建设，加快推进能源建设，加快推进通信建设：有序推进城市更新，加</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="278" t="n"/>
-      <c r="B49" s="278" t="n"/>
-      <c r="C49" s="278" t="n"/>
-      <c r="D49" s="276" t="inlineStr">
+      <c r="A49" s="281" t="n"/>
+      <c r="B49" s="281" t="n"/>
+      <c r="C49" s="281" t="n"/>
+      <c r="D49" s="279" t="inlineStr">
         <is>
           <t>强城市公共交通、市政设施、地下管网建设。2.加快新型城镇化建设，培育一批城市</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="278" t="n"/>
-      <c r="B50" s="278" t="n"/>
-      <c r="C50" s="278" t="n"/>
-      <c r="D50" s="276" t="inlineStr">
+      <c r="A50" s="281" t="n"/>
+      <c r="B50" s="281" t="n"/>
+      <c r="C50" s="281" t="n"/>
+      <c r="D50" s="279" t="inlineStr">
         <is>
           <t>好和区域中心城市，促进城乡融合发展。</t>
         </is>
